--- a/reverseprimer-v3_22.xlsx
+++ b/reverseprimer-v3_22.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="60" windowWidth="19176" windowHeight="15528"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="45096" windowHeight="22872"/>
   </bookViews>
   <sheets>
     <sheet name="reverseprimer-v3_22" sheetId="1" r:id="rId1"/>
@@ -28,865 +28,865 @@
     <t>A1</t>
   </si>
   <si>
-    <t>R2017-TCCAAGACTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCCAAGACTCGTCTCGTGGGCTCGG</t>
+    <t>R2017-TCGTACAGGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCGTACAGGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A2</t>
   </si>
   <si>
-    <t>R2018-TGACACAGAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGACACAGAAGTCTCGTGGGCTCGG</t>
+    <t>R2018-ACAGTGACTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACAGTGACTCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A3</t>
   </si>
   <si>
-    <t>R2019-TAGTGAACTG</t>
+    <t>R2019-TGGTACGAGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGGTACGAGTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>R2020-TTCGTCTGGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTCGTCTGGAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>R2021-GTCTAGGAAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTCTAGGAAGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>R2022-GTAGACGTTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTAGACGTTCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>A7</t>
+  </si>
+  <si>
+    <t>R2023-TAGTCAAGCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTAGTCAAGCAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>A8</t>
+  </si>
+  <si>
+    <t>R2024-CTTCAAGTTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTTCAAGTTCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>A9</t>
+  </si>
+  <si>
+    <t>R2025-CTTGGTCTGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTTGGTCTGTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>A10</t>
+  </si>
+  <si>
+    <t>R2026-CTCAGACAAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTCAGACAAGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>A11</t>
+  </si>
+  <si>
+    <t>R2027-ATCCTCCTGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATCCTCCTGTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>A12</t>
+  </si>
+  <si>
+    <t>R2028-AACGTGCTCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACGTGCTCAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>R2029-AACGTGTACC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACGTGTACCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>R2030-ATCGACCTTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATCGACCTTCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>R2031-TCACTGGTGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCACTGGTGTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>R2032-TAGATGACCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTAGATGACCAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>B5</t>
+  </si>
+  <si>
+    <t>R2033-CTTGACTCGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTTGACTCGTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>B6</t>
+  </si>
+  <si>
+    <t>R2034-CTACCTGAAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTACCTGAACGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>B7</t>
+  </si>
+  <si>
+    <t>R2035-TTGTAGGTAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTGTAGGTAGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>B8</t>
+  </si>
+  <si>
+    <t>R2036-CCTACAAGCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCCTACAAGCAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>B9</t>
+  </si>
+  <si>
+    <t>R2037-TAGTGTCCAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTAGTGTCCATGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>B10</t>
+  </si>
+  <si>
+    <t>R2038-ATCAGGACGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATCAGGACGTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>B11</t>
+  </si>
+  <si>
+    <t>R2039-TAGTGAACTG</t>
   </si>
   <si>
     <t>CAAGCAGAAGACGGCATACGAGATTAGTGAACTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
-    <t>A4</t>
-  </si>
-  <si>
-    <t>R2020-TCTCGTGTAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCTCGTGTACGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>A5</t>
-  </si>
-  <si>
-    <t>R2021-AGACTACATC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGACTACATCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>A6</t>
-  </si>
-  <si>
-    <t>R2022-ACACTCAAGG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACACTCAAGGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>A7</t>
-  </si>
-  <si>
-    <t>R2023-ATGTTCTCAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATGTTCTCACGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>A8</t>
-  </si>
-  <si>
-    <t>R2024-TAGTACCTCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTAGTACCTCTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>A9</t>
-  </si>
-  <si>
-    <t>R2025-CTGATCAACC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTGATCAACCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>A10</t>
-  </si>
-  <si>
-    <t>R2026-TAGAGATGGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTAGAGATGGTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>A11</t>
-  </si>
-  <si>
-    <t>R2027-TCTCGTCTGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCTCGTCTGAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>A12</t>
-  </si>
-  <si>
-    <t>R2028-CTCAAGTCGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTCAAGTCGAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>B1</t>
-  </si>
-  <si>
-    <t>R2029-CGAGTCATCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCGAGTCATCTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>B2</t>
-  </si>
-  <si>
-    <t>R2030-TTCAGCTGCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTCAGCTGCTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>B3</t>
-  </si>
-  <si>
-    <t>R2031-CTCACCATCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTCACCATCTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>B4</t>
-  </si>
-  <si>
-    <t>R2032-ATGCAGATGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATGCAGATGTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>B5</t>
-  </si>
-  <si>
-    <t>R2033-GAAGGAGTTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAAGGAGTTGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>B6</t>
-  </si>
-  <si>
-    <t>R2034-TCCTGGAAGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCCTGGAAGAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>B7</t>
-  </si>
-  <si>
-    <t>R2035-TACCTTCACA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTACCTTCACAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>B8</t>
-  </si>
-  <si>
-    <t>R2036-AACAGGAAGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACAGGAAGAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>B9</t>
-  </si>
-  <si>
-    <t>R2037-TTCACATCCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTCACATCCAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>B10</t>
-  </si>
-  <si>
-    <t>R2038-CTCACCTGTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTCACCTGTAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>B11</t>
-  </si>
-  <si>
-    <t>R2039-TGGAAGGTTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGGAAGGTTGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
     <t>B12</t>
   </si>
   <si>
-    <t>R2040-GCTTGGTAGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGCTTGGTAGTGTCTCGTGGGCTCGG</t>
+    <t>R2040-CTACTCATCG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTACTCATCGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C1</t>
   </si>
   <si>
-    <t>R2041-GATGCACTCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGATGCACTCAGTCTCGTGGGCTCGG</t>
+    <t>R2041-TGACGTGATC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGACGTGATCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C2</t>
   </si>
   <si>
-    <t>R2042-ACTACTCGAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACTACTCGACGTCTCGTGGGCTCGG</t>
+    <t>R2042-GAGTGTACAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAGTGTACACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C3</t>
   </si>
   <si>
-    <t>R2043-TCTGTGAACG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCTGTGAACGGTCTCGTGGGCTCGG</t>
+    <t>R2043-TGACAACCTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGACAACCTCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C4</t>
   </si>
   <si>
-    <t>R2044-CCTTCAAGTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCCTTCAAGTCGTCTCGTGGGCTCGG</t>
+    <t>R2044-AACAAGTAGC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACAAGTAGCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C5</t>
   </si>
   <si>
-    <t>R2045-CAGTTCAGTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCAGTTCAGTCGTCTCGTGGGCTCGG</t>
+    <t>R2045-GACAACTTGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGACAACTTGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C6</t>
   </si>
   <si>
-    <t>R2046-TGGTGGAGAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGGTGGAGAAGTCTCGTGGGCTCGG</t>
+    <t>R2046-CATCCATGGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCATCCATGGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C7</t>
   </si>
   <si>
-    <t>R2047-GCTCAAGCTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGCTCAAGCTTGTCTCGTGGGCTCGG</t>
+    <t>R2047-TCGATGGAAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCGATGGAAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C8</t>
   </si>
   <si>
-    <t>R2048-CAGCTGTCAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCAGCTGTCAAGTCTCGTGGGCTCGG</t>
+    <t>R2048-AAGCACACAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAAGCACACAAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C9</t>
   </si>
   <si>
-    <t>R2049-CAACCTTCCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCAACCTTCCAGTCTCGTGGGCTCGG</t>
+    <t>R2049-ACATGCAACG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACATGCAACGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C10</t>
   </si>
   <si>
-    <t>R2050-AGTTGAGACT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGTTGAGACTGTCTCGTGGGCTCGG</t>
+    <t>R2050-TTCGAGACGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTCGAGACGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C11</t>
   </si>
   <si>
-    <t>R2051-TCAGTACGAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCAGTACGATGTCTCGTGGGCTCGG</t>
+    <t>R2051-TTGTGAGGTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTGTGAGGTAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C12</t>
   </si>
   <si>
-    <t>R2052-ACCTACAAGC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACCTACAAGCGTCTCGTGGGCTCGG</t>
+    <t>R2052-GAAGTCGTGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAAGTCGTGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D1</t>
   </si>
   <si>
-    <t>R2053-TGCAAGACAT</t>
+    <t>R2053-TGGAGTACGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGGAGTACGAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>R2054-AAGAAGAGTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAAGAAGAGTGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>R2055-AAGACTGCTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAAGACTGCTTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>R2056-TGACAACACG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGACAACACGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>R2057-GTAGTCTGAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTAGTCTGAGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>R2058-TTCTACGAAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTCTACGAACGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>R2059-TAGCAGTAGG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTAGCAGTAGGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D8</t>
+  </si>
+  <si>
+    <t>R2060-GAGAAGCACA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAGAAGCACAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D9</t>
+  </si>
+  <si>
+    <t>R2061-ACTACTGGTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACTACTGGTTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D10</t>
+  </si>
+  <si>
+    <t>R2062-GCTACCTACT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGCTACCTACTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D11</t>
+  </si>
+  <si>
+    <t>R2063-ATGGAACGAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATGGAACGACGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D12</t>
+  </si>
+  <si>
+    <t>R2064-CACAACGATG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCACAACGATGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>R2065-CATCTCACTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCATCTCACTGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>R2066-AGACTCTACC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGACTCTACCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>R2067-AAGAAGCAAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAAGAAGCAACGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E4</t>
+  </si>
+  <si>
+    <t>R2068-GACAGCATGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGACAGCATGTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E5</t>
+  </si>
+  <si>
+    <t>R2069-AACCACTCTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACCACTCTAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E6</t>
+  </si>
+  <si>
+    <t>R2070-AGCTCGTAGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGCTCGTAGTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E7</t>
+  </si>
+  <si>
+    <t>R2071-AGGATCTGAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGGATCTGAGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E8</t>
+  </si>
+  <si>
+    <t>R2072-GTAGGTTGCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTAGGTTGCTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E9</t>
+  </si>
+  <si>
+    <t>R2073-GAAGGTGTCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAAGGTGTCTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E10</t>
+  </si>
+  <si>
+    <t>R2074-AGTCTCTGGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGTCTCTGGTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E11</t>
+  </si>
+  <si>
+    <t>R2075-TCACTGATCG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCACTGATCGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E12</t>
+  </si>
+  <si>
+    <t>R2076-GTTCCTGGAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTTCCTGGAAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>R2077-AACTCATCCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACTCATCCAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>R2078-TTCCAACATC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTCCAACATCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>R2079-TCAAGGAACT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCAAGGAACTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F4</t>
+  </si>
+  <si>
+    <t>R2080-AAGCATGAGC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAAGCATGAGCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F5</t>
+  </si>
+  <si>
+    <t>R2081-TCACCTCATC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCACCTCATCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F6</t>
+  </si>
+  <si>
+    <t>R2082-ACGTAGCTCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACGTAGCTCTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F7</t>
+  </si>
+  <si>
+    <t>R2083-TCCTCTACGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCCTCTACGTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F8</t>
+  </si>
+  <si>
+    <t>R2084-GTCATGTGAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTCATGTGAAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F9</t>
+  </si>
+  <si>
+    <t>R2085-TACTGTGTCC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTACTGTGTCCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F10</t>
+  </si>
+  <si>
+    <t>R2086-GACTCTTGAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGACTCTTGATGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F11</t>
+  </si>
+  <si>
+    <t>R2087-CTTGGATCCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTTGGATCCTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F12</t>
+  </si>
+  <si>
+    <t>R2088-AGCATCACTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGCATCACTGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G1</t>
+  </si>
+  <si>
+    <t>R2089-TACCAACTGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTACCAACTGTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G2</t>
+  </si>
+  <si>
+    <t>R2090-ACTGTTGCAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACTGTTGCATGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G3</t>
+  </si>
+  <si>
+    <t>R2091-TACCTGACTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTACCTGACTAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G4</t>
+  </si>
+  <si>
+    <t>R2092-CGTTGACTAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCGTTGACTAGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G5</t>
+  </si>
+  <si>
+    <t>R2093-TGAGACGAAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGAGACGAACGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G6</t>
+  </si>
+  <si>
+    <t>R2094-GAACACGACT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAACACGACTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G7</t>
+  </si>
+  <si>
+    <t>R2095-ACTACATCTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACTACATCTGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G8</t>
+  </si>
+  <si>
+    <t>R2096-ATGTCTCACC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATGTCTCACCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G9</t>
+  </si>
+  <si>
+    <t>R2097-GAGCACATCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAGCACATCTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G10</t>
+  </si>
+  <si>
+    <t>R2098-GTGAAGGTGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTGAAGGTGAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G11</t>
+  </si>
+  <si>
+    <t>R2099-TGTGCTTCAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGTGCTTCAGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G12</t>
+  </si>
+  <si>
+    <t>R2100-AGCAAGCAGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGCAAGCAGAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>H1</t>
+  </si>
+  <si>
+    <t>R2101-TGCAAGACAT</t>
   </si>
   <si>
     <t>CAAGCAGAAGACGGCATACGAGATTGCAAGACATGTCTCGTGGGCTCGG</t>
   </si>
   <si>
-    <t>D2</t>
-  </si>
-  <si>
-    <t>R2054-CGTAGAGTCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCGTAGAGTCTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D3</t>
-  </si>
-  <si>
-    <t>R2055-GTGTCAGACT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTGTCAGACTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D4</t>
-  </si>
-  <si>
-    <t>R2056-ATCGAGAACA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATCGAGAACAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D5</t>
-  </si>
-  <si>
-    <t>R2057-AGTAGGAGTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGTAGGAGTAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D6</t>
-  </si>
-  <si>
-    <t>R2058-GTTCTTCAGC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTTCTTCAGCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D7</t>
-  </si>
-  <si>
-    <t>R2059-CTGCTTGTCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTGCTTGTCAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D8</t>
-  </si>
-  <si>
-    <t>R2060-GAAGCTGTAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAAGCTGTACGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D9</t>
-  </si>
-  <si>
-    <t>R2061-CTCCTCTCAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTCCTCTCATGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D10</t>
-  </si>
-  <si>
-    <t>R2062-ACTAGTGGAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACTAGTGGAAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D11</t>
-  </si>
-  <si>
-    <t>R2063-AGTGAGTAGC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGTGAGTAGCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D12</t>
-  </si>
-  <si>
-    <t>R2064-ATCCTCATCC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATCCTCATCCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E1</t>
-  </si>
-  <si>
-    <t>R2065-TGGAGATGTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGGAGATGTAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E2</t>
-  </si>
-  <si>
-    <t>R2066-TACGAAGACC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTACGAAGACCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E3</t>
-  </si>
-  <si>
-    <t>R2067-GACACATGAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGACACATGAAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E4</t>
-  </si>
-  <si>
-    <t>R2068-CTCTGTGTCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTCTGTGTCTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E5</t>
-  </si>
-  <si>
-    <t>R2069-ATGCAAGGTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATGCAAGGTGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E6</t>
-  </si>
-  <si>
-    <t>R2070-TACAACGAGC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTACAACGAGCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E7</t>
-  </si>
-  <si>
-    <t>R2071-TGGATGAGAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGGATGAGAGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E8</t>
-  </si>
-  <si>
-    <t>R2072-TTGTGACCAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTGTGACCAAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E9</t>
-  </si>
-  <si>
-    <t>R2073-AGTGAAGTTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGTGAAGTTGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E10</t>
-  </si>
-  <si>
-    <t>R2074-CCTACGTTCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCCTACGTTCAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E11</t>
-  </si>
-  <si>
-    <t>R2075-AAGACAGCAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAAGACAGCAAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E12</t>
-  </si>
-  <si>
-    <t>R2076-AGTGCTGTGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGTGCTGTGTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F1</t>
-  </si>
-  <si>
-    <t>R2077-TCGTGACAGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCGTGACAGTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F2</t>
-  </si>
-  <si>
-    <t>R2078-TCTGGATCGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCTGGATCGTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F3</t>
-  </si>
-  <si>
-    <t>R2079-ACATCGTAGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACATCGTAGAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F4</t>
-  </si>
-  <si>
-    <t>R2080-ACACTCACTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACACTCACTAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F5</t>
-  </si>
-  <si>
-    <t>R2081-GTACACCTCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTACACCTCAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F6</t>
-  </si>
-  <si>
-    <t>R2082-GAGGATCTCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAGGATCTCTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F7</t>
-  </si>
-  <si>
-    <t>R2083-CCAGTACGTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCCAGTACGTAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F8</t>
-  </si>
-  <si>
-    <t>R2084-TCGTCACCTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCGTCACCTAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F9</t>
-  </si>
-  <si>
-    <t>R2085-TCAACTTCTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCAACTTCTGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F10</t>
-  </si>
-  <si>
-    <t>R2086-TACGACACTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTACGACACTGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F11</t>
-  </si>
-  <si>
-    <t>R2087-GAACTTCGTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAACTTCGTAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F12</t>
-  </si>
-  <si>
-    <t>R2088-CTACTCATCG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTACTCATCGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G1</t>
-  </si>
-  <si>
-    <t>R2089-AAGACTTGAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAAGACTTGAGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G2</t>
-  </si>
-  <si>
-    <t>R2090-CGTCTAGAAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCGTCTAGAACGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G3</t>
-  </si>
-  <si>
-    <t>R2091-TACTCGTGGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTACTCGTGGTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G4</t>
-  </si>
-  <si>
-    <t>R2092-TGACATGAAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGACATGAAGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G5</t>
-  </si>
-  <si>
-    <t>R2093-CAGTACTGTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCAGTACTGTAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G6</t>
-  </si>
-  <si>
-    <t>R2094-TCTCGAAGGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCTCGAAGGAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G7</t>
-  </si>
-  <si>
-    <t>R2095-TGCACTAGGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGCACTAGGTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G8</t>
-  </si>
-  <si>
-    <t>R2096-GAGTCCTCAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAGTCCTCAAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G9</t>
-  </si>
-  <si>
-    <t>R2097-GAACACACAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAACACACATGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G10</t>
-  </si>
-  <si>
-    <t>R2098-CCTAGCAGTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCCTAGCAGTAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G11</t>
-  </si>
-  <si>
-    <t>R2099-ATGAGGATGC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATGAGGATGCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G12</t>
-  </si>
-  <si>
-    <t>R2100-CACATCTAGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCACATCTAGAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>H1</t>
-  </si>
-  <si>
-    <t>R2101-ACACTGTTCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACACTGTTCTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
     <t>H2</t>
   </si>
   <si>
-    <t>R2102-GGATGTAGCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGGATGTAGCAGTCTCGTGGGCTCGG</t>
+    <t>R2102-AGAGCTGTCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGAGCTGTCAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H3</t>
   </si>
   <si>
-    <t>R2103-CAAGCATGAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCAAGCATGATGTCTCGTGGGCTCGG</t>
+    <t>R2103-ATCACGACAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATCACGACAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H4</t>
   </si>
   <si>
-    <t>R2104-ATGCTAGGAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATGCTAGGAAGTCTCGTGGGCTCGG</t>
+    <t>R2104-TCCTTCGTGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCCTTCGTGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H5</t>
   </si>
   <si>
-    <t>R2105-TTGACTGACG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTGACTGACGGTCTCGTGGGCTCGG</t>
+    <t>R2105-ACTCCATCAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACTCCATCACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H6</t>
   </si>
   <si>
-    <t>R2106-CATGCTCTCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCATGCTCTCTGTCTCGTGGGCTCGG</t>
+    <t>R2106-GTAGGTGTAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTAGGTGTAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H7</t>
   </si>
   <si>
-    <t>R2107-ACTGGTTCAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACTGGTTCAAGTCTCGTGGGCTCGG</t>
+    <t>R2107-CGATCATCAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCGATCATCATGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H8</t>
   </si>
   <si>
-    <t>R2108-ACAACGAAGG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACAACGAAGGGTCTCGTGGGCTCGG</t>
+    <t>R2108-TCACCATCCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCACCATCCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H9</t>
   </si>
   <si>
-    <t>R2109-GCTTGTCTCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGCTTGTCTCAGTCTCGTGGGCTCGG</t>
+    <t>R2109-TCGTACTGAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCGTACTGAAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H10</t>
   </si>
   <si>
-    <t>R2110-ACTCTGTGAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACTCTGTGAGGTCTCGTGGGCTCGG</t>
+    <t>R2110-GTGGTAGCTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTGGTAGCTTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H11</t>
   </si>
   <si>
-    <t>R2111-GCTGCTTGAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGCTGCTTGATGTCTCGTGGGCTCGG</t>
+    <t>R2111-GTTCCTCATG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTTCCTCATGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H12</t>
   </si>
   <si>
-    <t>R2112-TCTCTTGAGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCTCTTGAGTGTCTCGTGGGCTCGG</t>
+    <t>R2112-TGAGGAACCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGAGGAACCAGTCTCGTGGGCTCGG</t>
   </si>
 </sst>
 </file>
